--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-private-memo-utility/tests/testdata/src_px2/px-files/sitemaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA7C1EE-6288-7640-A9AA-0116C7D95F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.11</t>
   </si>
   <si>
-    <t>「px2-report」 サイトマップ</t>
-  </si>
-  <si>
     <t>Exported: 2020-03-30 21:22:23</t>
   </si>
   <si>
@@ -156,58 +158,67 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>Child 1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>/child1/</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「px2-private-memo-utility」 サイトマップ</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Source Han Code JP EL"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -215,10 +226,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -234,19 +242,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -260,13 +274,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -274,13 +289,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -288,48 +304,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -619,42 +629,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:YZ12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:YZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="YZ12" sqref="YZ12"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="2" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="40" customWidth="true" style="0"/>
-    <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:676" customHeight="1" ht="10">
+    <row r="1" spans="1:676" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,892 +1334,918 @@
       <c r="YY1" s="1"/>
       <c r="YZ1" s="1"/>
     </row>
-    <row r="3" spans="1:676">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+    <row r="3" spans="1:676" ht="38">
+      <c r="A3" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:676">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:676">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="T7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Y7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Z7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:676">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="T8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="Y8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Z8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:676">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:676">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
         <v>1</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="13" spans="1:676" ht="5" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="12" spans="1:676" customHeight="1" ht="5">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="9"/>
-      <c r="AO12" s="9"/>
-      <c r="AP12" s="9"/>
-      <c r="AQ12" s="9"/>
-      <c r="AR12" s="9"/>
-      <c r="AS12" s="9"/>
-      <c r="AT12" s="9"/>
-      <c r="AU12" s="9"/>
-      <c r="AV12" s="9"/>
-      <c r="AW12" s="9"/>
-      <c r="AX12" s="9"/>
-      <c r="AY12" s="9"/>
-      <c r="AZ12" s="9"/>
-      <c r="BA12" s="9"/>
-      <c r="BB12" s="9"/>
-      <c r="BC12" s="9"/>
-      <c r="BD12" s="9"/>
-      <c r="BE12" s="9"/>
-      <c r="BF12" s="9"/>
-      <c r="BG12" s="9"/>
-      <c r="BH12" s="9"/>
-      <c r="BI12" s="9"/>
-      <c r="BJ12" s="9"/>
-      <c r="BK12" s="9"/>
-      <c r="BL12" s="9"/>
-      <c r="BM12" s="9"/>
-      <c r="BN12" s="9"/>
-      <c r="BO12" s="9"/>
-      <c r="BP12" s="9"/>
-      <c r="BQ12" s="9"/>
-      <c r="BR12" s="9"/>
-      <c r="BS12" s="9"/>
-      <c r="BT12" s="9"/>
-      <c r="BU12" s="9"/>
-      <c r="BV12" s="9"/>
-      <c r="BW12" s="9"/>
-      <c r="BX12" s="9"/>
-      <c r="BY12" s="9"/>
-      <c r="BZ12" s="9"/>
-      <c r="CA12" s="9"/>
-      <c r="CB12" s="9"/>
-      <c r="CC12" s="9"/>
-      <c r="CD12" s="9"/>
-      <c r="CE12" s="9"/>
-      <c r="CF12" s="9"/>
-      <c r="CG12" s="9"/>
-      <c r="CH12" s="9"/>
-      <c r="CI12" s="9"/>
-      <c r="CJ12" s="9"/>
-      <c r="CK12" s="9"/>
-      <c r="CL12" s="9"/>
-      <c r="CM12" s="9"/>
-      <c r="CN12" s="9"/>
-      <c r="CO12" s="9"/>
-      <c r="CP12" s="9"/>
-      <c r="CQ12" s="9"/>
-      <c r="CR12" s="9"/>
-      <c r="CS12" s="9"/>
-      <c r="CT12" s="9"/>
-      <c r="CU12" s="9"/>
-      <c r="CV12" s="9"/>
-      <c r="CW12" s="9"/>
-      <c r="CX12" s="9"/>
-      <c r="CY12" s="9"/>
-      <c r="CZ12" s="9"/>
-      <c r="DA12" s="9"/>
-      <c r="DB12" s="9"/>
-      <c r="DC12" s="9"/>
-      <c r="DD12" s="9"/>
-      <c r="DE12" s="9"/>
-      <c r="DF12" s="9"/>
-      <c r="DG12" s="9"/>
-      <c r="DH12" s="9"/>
-      <c r="DI12" s="9"/>
-      <c r="DJ12" s="9"/>
-      <c r="DK12" s="9"/>
-      <c r="DL12" s="9"/>
-      <c r="DM12" s="9"/>
-      <c r="DN12" s="9"/>
-      <c r="DO12" s="9"/>
-      <c r="DP12" s="9"/>
-      <c r="DQ12" s="9"/>
-      <c r="DR12" s="9"/>
-      <c r="DS12" s="9"/>
-      <c r="DT12" s="9"/>
-      <c r="DU12" s="9"/>
-      <c r="DV12" s="9"/>
-      <c r="DW12" s="9"/>
-      <c r="DX12" s="9"/>
-      <c r="DY12" s="9"/>
-      <c r="DZ12" s="9"/>
-      <c r="EA12" s="9"/>
-      <c r="EB12" s="9"/>
-      <c r="EC12" s="9"/>
-      <c r="ED12" s="9"/>
-      <c r="EE12" s="9"/>
-      <c r="EF12" s="9"/>
-      <c r="EG12" s="9"/>
-      <c r="EH12" s="9"/>
-      <c r="EI12" s="9"/>
-      <c r="EJ12" s="9"/>
-      <c r="EK12" s="9"/>
-      <c r="EL12" s="9"/>
-      <c r="EM12" s="9"/>
-      <c r="EN12" s="9"/>
-      <c r="EO12" s="9"/>
-      <c r="EP12" s="9"/>
-      <c r="EQ12" s="9"/>
-      <c r="ER12" s="9"/>
-      <c r="ES12" s="9"/>
-      <c r="ET12" s="9"/>
-      <c r="EU12" s="9"/>
-      <c r="EV12" s="9"/>
-      <c r="EW12" s="9"/>
-      <c r="EX12" s="9"/>
-      <c r="EY12" s="9"/>
-      <c r="EZ12" s="9"/>
-      <c r="FA12" s="9"/>
-      <c r="FB12" s="9"/>
-      <c r="FC12" s="9"/>
-      <c r="FD12" s="9"/>
-      <c r="FE12" s="9"/>
-      <c r="FF12" s="9"/>
-      <c r="FG12" s="9"/>
-      <c r="FH12" s="9"/>
-      <c r="FI12" s="9"/>
-      <c r="FJ12" s="9"/>
-      <c r="FK12" s="9"/>
-      <c r="FL12" s="9"/>
-      <c r="FM12" s="9"/>
-      <c r="FN12" s="9"/>
-      <c r="FO12" s="9"/>
-      <c r="FP12" s="9"/>
-      <c r="FQ12" s="9"/>
-      <c r="FR12" s="9"/>
-      <c r="FS12" s="9"/>
-      <c r="FT12" s="9"/>
-      <c r="FU12" s="9"/>
-      <c r="FV12" s="9"/>
-      <c r="FW12" s="9"/>
-      <c r="FX12" s="9"/>
-      <c r="FY12" s="9"/>
-      <c r="FZ12" s="9"/>
-      <c r="GA12" s="9"/>
-      <c r="GB12" s="9"/>
-      <c r="GC12" s="9"/>
-      <c r="GD12" s="9"/>
-      <c r="GE12" s="9"/>
-      <c r="GF12" s="9"/>
-      <c r="GG12" s="9"/>
-      <c r="GH12" s="9"/>
-      <c r="GI12" s="9"/>
-      <c r="GJ12" s="9"/>
-      <c r="GK12" s="9"/>
-      <c r="GL12" s="9"/>
-      <c r="GM12" s="9"/>
-      <c r="GN12" s="9"/>
-      <c r="GO12" s="9"/>
-      <c r="GP12" s="9"/>
-      <c r="GQ12" s="9"/>
-      <c r="GR12" s="9"/>
-      <c r="GS12" s="9"/>
-      <c r="GT12" s="9"/>
-      <c r="GU12" s="9"/>
-      <c r="GV12" s="9"/>
-      <c r="GW12" s="9"/>
-      <c r="GX12" s="9"/>
-      <c r="GY12" s="9"/>
-      <c r="GZ12" s="9"/>
-      <c r="HA12" s="9"/>
-      <c r="HB12" s="9"/>
-      <c r="HC12" s="9"/>
-      <c r="HD12" s="9"/>
-      <c r="HE12" s="9"/>
-      <c r="HF12" s="9"/>
-      <c r="HG12" s="9"/>
-      <c r="HH12" s="9"/>
-      <c r="HI12" s="9"/>
-      <c r="HJ12" s="9"/>
-      <c r="HK12" s="9"/>
-      <c r="HL12" s="9"/>
-      <c r="HM12" s="9"/>
-      <c r="HN12" s="9"/>
-      <c r="HO12" s="9"/>
-      <c r="HP12" s="9"/>
-      <c r="HQ12" s="9"/>
-      <c r="HR12" s="9"/>
-      <c r="HS12" s="9"/>
-      <c r="HT12" s="9"/>
-      <c r="HU12" s="9"/>
-      <c r="HV12" s="9"/>
-      <c r="HW12" s="9"/>
-      <c r="HX12" s="9"/>
-      <c r="HY12" s="9"/>
-      <c r="HZ12" s="9"/>
-      <c r="IA12" s="9"/>
-      <c r="IB12" s="9"/>
-      <c r="IC12" s="9"/>
-      <c r="ID12" s="9"/>
-      <c r="IE12" s="9"/>
-      <c r="IF12" s="9"/>
-      <c r="IG12" s="9"/>
-      <c r="IH12" s="9"/>
-      <c r="II12" s="9"/>
-      <c r="IJ12" s="9"/>
-      <c r="IK12" s="9"/>
-      <c r="IL12" s="9"/>
-      <c r="IM12" s="9"/>
-      <c r="IN12" s="9"/>
-      <c r="IO12" s="9"/>
-      <c r="IP12" s="9"/>
-      <c r="IQ12" s="9"/>
-      <c r="IR12" s="9"/>
-      <c r="IS12" s="9"/>
-      <c r="IT12" s="9"/>
-      <c r="IU12" s="9"/>
-      <c r="IV12" s="9"/>
-      <c r="IW12" s="9"/>
-      <c r="IX12" s="9"/>
-      <c r="IY12" s="9"/>
-      <c r="IZ12" s="9"/>
-      <c r="JA12" s="9"/>
-      <c r="JB12" s="9"/>
-      <c r="JC12" s="9"/>
-      <c r="JD12" s="9"/>
-      <c r="JE12" s="9"/>
-      <c r="JF12" s="9"/>
-      <c r="JG12" s="9"/>
-      <c r="JH12" s="9"/>
-      <c r="JI12" s="9"/>
-      <c r="JJ12" s="9"/>
-      <c r="JK12" s="9"/>
-      <c r="JL12" s="9"/>
-      <c r="JM12" s="9"/>
-      <c r="JN12" s="9"/>
-      <c r="JO12" s="9"/>
-      <c r="JP12" s="9"/>
-      <c r="JQ12" s="9"/>
-      <c r="JR12" s="9"/>
-      <c r="JS12" s="9"/>
-      <c r="JT12" s="9"/>
-      <c r="JU12" s="9"/>
-      <c r="JV12" s="9"/>
-      <c r="JW12" s="9"/>
-      <c r="JX12" s="9"/>
-      <c r="JY12" s="9"/>
-      <c r="JZ12" s="9"/>
-      <c r="KA12" s="9"/>
-      <c r="KB12" s="9"/>
-      <c r="KC12" s="9"/>
-      <c r="KD12" s="9"/>
-      <c r="KE12" s="9"/>
-      <c r="KF12" s="9"/>
-      <c r="KG12" s="9"/>
-      <c r="KH12" s="9"/>
-      <c r="KI12" s="9"/>
-      <c r="KJ12" s="9"/>
-      <c r="KK12" s="9"/>
-      <c r="KL12" s="9"/>
-      <c r="KM12" s="9"/>
-      <c r="KN12" s="9"/>
-      <c r="KO12" s="9"/>
-      <c r="KP12" s="9"/>
-      <c r="KQ12" s="9"/>
-      <c r="KR12" s="9"/>
-      <c r="KS12" s="9"/>
-      <c r="KT12" s="9"/>
-      <c r="KU12" s="9"/>
-      <c r="KV12" s="9"/>
-      <c r="KW12" s="9"/>
-      <c r="KX12" s="9"/>
-      <c r="KY12" s="9"/>
-      <c r="KZ12" s="9"/>
-      <c r="LA12" s="9"/>
-      <c r="LB12" s="9"/>
-      <c r="LC12" s="9"/>
-      <c r="LD12" s="9"/>
-      <c r="LE12" s="9"/>
-      <c r="LF12" s="9"/>
-      <c r="LG12" s="9"/>
-      <c r="LH12" s="9"/>
-      <c r="LI12" s="9"/>
-      <c r="LJ12" s="9"/>
-      <c r="LK12" s="9"/>
-      <c r="LL12" s="9"/>
-      <c r="LM12" s="9"/>
-      <c r="LN12" s="9"/>
-      <c r="LO12" s="9"/>
-      <c r="LP12" s="9"/>
-      <c r="LQ12" s="9"/>
-      <c r="LR12" s="9"/>
-      <c r="LS12" s="9"/>
-      <c r="LT12" s="9"/>
-      <c r="LU12" s="9"/>
-      <c r="LV12" s="9"/>
-      <c r="LW12" s="9"/>
-      <c r="LX12" s="9"/>
-      <c r="LY12" s="9"/>
-      <c r="LZ12" s="9"/>
-      <c r="MA12" s="9"/>
-      <c r="MB12" s="9"/>
-      <c r="MC12" s="9"/>
-      <c r="MD12" s="9"/>
-      <c r="ME12" s="9"/>
-      <c r="MF12" s="9"/>
-      <c r="MG12" s="9"/>
-      <c r="MH12" s="9"/>
-      <c r="MI12" s="9"/>
-      <c r="MJ12" s="9"/>
-      <c r="MK12" s="9"/>
-      <c r="ML12" s="9"/>
-      <c r="MM12" s="9"/>
-      <c r="MN12" s="9"/>
-      <c r="MO12" s="9"/>
-      <c r="MP12" s="9"/>
-      <c r="MQ12" s="9"/>
-      <c r="MR12" s="9"/>
-      <c r="MS12" s="9"/>
-      <c r="MT12" s="9"/>
-      <c r="MU12" s="9"/>
-      <c r="MV12" s="9"/>
-      <c r="MW12" s="9"/>
-      <c r="MX12" s="9"/>
-      <c r="MY12" s="9"/>
-      <c r="MZ12" s="9"/>
-      <c r="NA12" s="9"/>
-      <c r="NB12" s="9"/>
-      <c r="NC12" s="9"/>
-      <c r="ND12" s="9"/>
-      <c r="NE12" s="9"/>
-      <c r="NF12" s="9"/>
-      <c r="NG12" s="9"/>
-      <c r="NH12" s="9"/>
-      <c r="NI12" s="9"/>
-      <c r="NJ12" s="9"/>
-      <c r="NK12" s="9"/>
-      <c r="NL12" s="9"/>
-      <c r="NM12" s="9"/>
-      <c r="NN12" s="9"/>
-      <c r="NO12" s="9"/>
-      <c r="NP12" s="9"/>
-      <c r="NQ12" s="9"/>
-      <c r="NR12" s="9"/>
-      <c r="NS12" s="9"/>
-      <c r="NT12" s="9"/>
-      <c r="NU12" s="9"/>
-      <c r="NV12" s="9"/>
-      <c r="NW12" s="9"/>
-      <c r="NX12" s="9"/>
-      <c r="NY12" s="9"/>
-      <c r="NZ12" s="9"/>
-      <c r="OA12" s="9"/>
-      <c r="OB12" s="9"/>
-      <c r="OC12" s="9"/>
-      <c r="OD12" s="9"/>
-      <c r="OE12" s="9"/>
-      <c r="OF12" s="9"/>
-      <c r="OG12" s="9"/>
-      <c r="OH12" s="9"/>
-      <c r="OI12" s="9"/>
-      <c r="OJ12" s="9"/>
-      <c r="OK12" s="9"/>
-      <c r="OL12" s="9"/>
-      <c r="OM12" s="9"/>
-      <c r="ON12" s="9"/>
-      <c r="OO12" s="9"/>
-      <c r="OP12" s="9"/>
-      <c r="OQ12" s="9"/>
-      <c r="OR12" s="9"/>
-      <c r="OS12" s="9"/>
-      <c r="OT12" s="9"/>
-      <c r="OU12" s="9"/>
-      <c r="OV12" s="9"/>
-      <c r="OW12" s="9"/>
-      <c r="OX12" s="9"/>
-      <c r="OY12" s="9"/>
-      <c r="OZ12" s="9"/>
-      <c r="PA12" s="9"/>
-      <c r="PB12" s="9"/>
-      <c r="PC12" s="9"/>
-      <c r="PD12" s="9"/>
-      <c r="PE12" s="9"/>
-      <c r="PF12" s="9"/>
-      <c r="PG12" s="9"/>
-      <c r="PH12" s="9"/>
-      <c r="PI12" s="9"/>
-      <c r="PJ12" s="9"/>
-      <c r="PK12" s="9"/>
-      <c r="PL12" s="9"/>
-      <c r="PM12" s="9"/>
-      <c r="PN12" s="9"/>
-      <c r="PO12" s="9"/>
-      <c r="PP12" s="9"/>
-      <c r="PQ12" s="9"/>
-      <c r="PR12" s="9"/>
-      <c r="PS12" s="9"/>
-      <c r="PT12" s="9"/>
-      <c r="PU12" s="9"/>
-      <c r="PV12" s="9"/>
-      <c r="PW12" s="9"/>
-      <c r="PX12" s="9"/>
-      <c r="PY12" s="9"/>
-      <c r="PZ12" s="9"/>
-      <c r="QA12" s="9"/>
-      <c r="QB12" s="9"/>
-      <c r="QC12" s="9"/>
-      <c r="QD12" s="9"/>
-      <c r="QE12" s="9"/>
-      <c r="QF12" s="9"/>
-      <c r="QG12" s="9"/>
-      <c r="QH12" s="9"/>
-      <c r="QI12" s="9"/>
-      <c r="QJ12" s="9"/>
-      <c r="QK12" s="9"/>
-      <c r="QL12" s="9"/>
-      <c r="QM12" s="9"/>
-      <c r="QN12" s="9"/>
-      <c r="QO12" s="9"/>
-      <c r="QP12" s="9"/>
-      <c r="QQ12" s="9"/>
-      <c r="QR12" s="9"/>
-      <c r="QS12" s="9"/>
-      <c r="QT12" s="9"/>
-      <c r="QU12" s="9"/>
-      <c r="QV12" s="9"/>
-      <c r="QW12" s="9"/>
-      <c r="QX12" s="9"/>
-      <c r="QY12" s="9"/>
-      <c r="QZ12" s="9"/>
-      <c r="RA12" s="9"/>
-      <c r="RB12" s="9"/>
-      <c r="RC12" s="9"/>
-      <c r="RD12" s="9"/>
-      <c r="RE12" s="9"/>
-      <c r="RF12" s="9"/>
-      <c r="RG12" s="9"/>
-      <c r="RH12" s="9"/>
-      <c r="RI12" s="9"/>
-      <c r="RJ12" s="9"/>
-      <c r="RK12" s="9"/>
-      <c r="RL12" s="9"/>
-      <c r="RM12" s="9"/>
-      <c r="RN12" s="9"/>
-      <c r="RO12" s="9"/>
-      <c r="RP12" s="9"/>
-      <c r="RQ12" s="9"/>
-      <c r="RR12" s="9"/>
-      <c r="RS12" s="9"/>
-      <c r="RT12" s="9"/>
-      <c r="RU12" s="9"/>
-      <c r="RV12" s="9"/>
-      <c r="RW12" s="9"/>
-      <c r="RX12" s="9"/>
-      <c r="RY12" s="9"/>
-      <c r="RZ12" s="9"/>
-      <c r="SA12" s="9"/>
-      <c r="SB12" s="9"/>
-      <c r="SC12" s="9"/>
-      <c r="SD12" s="9"/>
-      <c r="SE12" s="9"/>
-      <c r="SF12" s="9"/>
-      <c r="SG12" s="9"/>
-      <c r="SH12" s="9"/>
-      <c r="SI12" s="9"/>
-      <c r="SJ12" s="9"/>
-      <c r="SK12" s="9"/>
-      <c r="SL12" s="9"/>
-      <c r="SM12" s="9"/>
-      <c r="SN12" s="9"/>
-      <c r="SO12" s="9"/>
-      <c r="SP12" s="9"/>
-      <c r="SQ12" s="9"/>
-      <c r="SR12" s="9"/>
-      <c r="SS12" s="9"/>
-      <c r="ST12" s="9"/>
-      <c r="SU12" s="9"/>
-      <c r="SV12" s="9"/>
-      <c r="SW12" s="9"/>
-      <c r="SX12" s="9"/>
-      <c r="SY12" s="9"/>
-      <c r="SZ12" s="9"/>
-      <c r="TA12" s="9"/>
-      <c r="TB12" s="9"/>
-      <c r="TC12" s="9"/>
-      <c r="TD12" s="9"/>
-      <c r="TE12" s="9"/>
-      <c r="TF12" s="9"/>
-      <c r="TG12" s="9"/>
-      <c r="TH12" s="9"/>
-      <c r="TI12" s="9"/>
-      <c r="TJ12" s="9"/>
-      <c r="TK12" s="9"/>
-      <c r="TL12" s="9"/>
-      <c r="TM12" s="9"/>
-      <c r="TN12" s="9"/>
-      <c r="TO12" s="9"/>
-      <c r="TP12" s="9"/>
-      <c r="TQ12" s="9"/>
-      <c r="TR12" s="9"/>
-      <c r="TS12" s="9"/>
-      <c r="TT12" s="9"/>
-      <c r="TU12" s="9"/>
-      <c r="TV12" s="9"/>
-      <c r="TW12" s="9"/>
-      <c r="TX12" s="9"/>
-      <c r="TY12" s="9"/>
-      <c r="TZ12" s="9"/>
-      <c r="UA12" s="9"/>
-      <c r="UB12" s="9"/>
-      <c r="UC12" s="9"/>
-      <c r="UD12" s="9"/>
-      <c r="UE12" s="9"/>
-      <c r="UF12" s="9"/>
-      <c r="UG12" s="9"/>
-      <c r="UH12" s="9"/>
-      <c r="UI12" s="9"/>
-      <c r="UJ12" s="9"/>
-      <c r="UK12" s="9"/>
-      <c r="UL12" s="9"/>
-      <c r="UM12" s="9"/>
-      <c r="UN12" s="9"/>
-      <c r="UO12" s="9"/>
-      <c r="UP12" s="9"/>
-      <c r="UQ12" s="9"/>
-      <c r="UR12" s="9"/>
-      <c r="US12" s="9"/>
-      <c r="UT12" s="9"/>
-      <c r="UU12" s="9"/>
-      <c r="UV12" s="9"/>
-      <c r="UW12" s="9"/>
-      <c r="UX12" s="9"/>
-      <c r="UY12" s="9"/>
-      <c r="UZ12" s="9"/>
-      <c r="VA12" s="9"/>
-      <c r="VB12" s="9"/>
-      <c r="VC12" s="9"/>
-      <c r="VD12" s="9"/>
-      <c r="VE12" s="9"/>
-      <c r="VF12" s="9"/>
-      <c r="VG12" s="9"/>
-      <c r="VH12" s="9"/>
-      <c r="VI12" s="9"/>
-      <c r="VJ12" s="9"/>
-      <c r="VK12" s="9"/>
-      <c r="VL12" s="9"/>
-      <c r="VM12" s="9"/>
-      <c r="VN12" s="9"/>
-      <c r="VO12" s="9"/>
-      <c r="VP12" s="9"/>
-      <c r="VQ12" s="9"/>
-      <c r="VR12" s="9"/>
-      <c r="VS12" s="9"/>
-      <c r="VT12" s="9"/>
-      <c r="VU12" s="9"/>
-      <c r="VV12" s="9"/>
-      <c r="VW12" s="9"/>
-      <c r="VX12" s="9"/>
-      <c r="VY12" s="9"/>
-      <c r="VZ12" s="9"/>
-      <c r="WA12" s="9"/>
-      <c r="WB12" s="9"/>
-      <c r="WC12" s="9"/>
-      <c r="WD12" s="9"/>
-      <c r="WE12" s="9"/>
-      <c r="WF12" s="9"/>
-      <c r="WG12" s="9"/>
-      <c r="WH12" s="9"/>
-      <c r="WI12" s="9"/>
-      <c r="WJ12" s="9"/>
-      <c r="WK12" s="9"/>
-      <c r="WL12" s="9"/>
-      <c r="WM12" s="9"/>
-      <c r="WN12" s="9"/>
-      <c r="WO12" s="9"/>
-      <c r="WP12" s="9"/>
-      <c r="WQ12" s="9"/>
-      <c r="WR12" s="9"/>
-      <c r="WS12" s="9"/>
-      <c r="WT12" s="9"/>
-      <c r="WU12" s="9"/>
-      <c r="WV12" s="9"/>
-      <c r="WW12" s="9"/>
-      <c r="WX12" s="9"/>
-      <c r="WY12" s="9"/>
-      <c r="WZ12" s="9"/>
-      <c r="XA12" s="9"/>
-      <c r="XB12" s="9"/>
-      <c r="XC12" s="9"/>
-      <c r="XD12" s="9"/>
-      <c r="XE12" s="9"/>
-      <c r="XF12" s="9"/>
-      <c r="XG12" s="9"/>
-      <c r="XH12" s="9"/>
-      <c r="XI12" s="9"/>
-      <c r="XJ12" s="9"/>
-      <c r="XK12" s="9"/>
-      <c r="XL12" s="9"/>
-      <c r="XM12" s="9"/>
-      <c r="XN12" s="9"/>
-      <c r="XO12" s="9"/>
-      <c r="XP12" s="9"/>
-      <c r="XQ12" s="9"/>
-      <c r="XR12" s="9"/>
-      <c r="XS12" s="9"/>
-      <c r="XT12" s="9"/>
-      <c r="XU12" s="9"/>
-      <c r="XV12" s="9"/>
-      <c r="XW12" s="9"/>
-      <c r="XX12" s="9"/>
-      <c r="XY12" s="9"/>
-      <c r="XZ12" s="9"/>
-      <c r="YA12" s="9"/>
-      <c r="YB12" s="9"/>
-      <c r="YC12" s="9"/>
-      <c r="YD12" s="9"/>
-      <c r="YE12" s="9"/>
-      <c r="YF12" s="9"/>
-      <c r="YG12" s="9"/>
-      <c r="YH12" s="9"/>
-      <c r="YI12" s="9"/>
-      <c r="YJ12" s="9"/>
-      <c r="YK12" s="9"/>
-      <c r="YL12" s="9"/>
-      <c r="YM12" s="9"/>
-      <c r="YN12" s="9"/>
-      <c r="YO12" s="9"/>
-      <c r="YP12" s="9"/>
-      <c r="YQ12" s="9"/>
-      <c r="YR12" s="9"/>
-      <c r="YS12" s="9"/>
-      <c r="YT12" s="9"/>
-      <c r="YU12" s="9"/>
-      <c r="YV12" s="9"/>
-      <c r="YW12" s="9"/>
-      <c r="YX12" s="9"/>
-      <c r="YY12" s="9"/>
-      <c r="YZ12" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="8"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="8"/>
+      <c r="BQ13" s="8"/>
+      <c r="BR13" s="8"/>
+      <c r="BS13" s="8"/>
+      <c r="BT13" s="8"/>
+      <c r="BU13" s="8"/>
+      <c r="BV13" s="8"/>
+      <c r="BW13" s="8"/>
+      <c r="BX13" s="8"/>
+      <c r="BY13" s="8"/>
+      <c r="BZ13" s="8"/>
+      <c r="CA13" s="8"/>
+      <c r="CB13" s="8"/>
+      <c r="CC13" s="8"/>
+      <c r="CD13" s="8"/>
+      <c r="CE13" s="8"/>
+      <c r="CF13" s="8"/>
+      <c r="CG13" s="8"/>
+      <c r="CH13" s="8"/>
+      <c r="CI13" s="8"/>
+      <c r="CJ13" s="8"/>
+      <c r="CK13" s="8"/>
+      <c r="CL13" s="8"/>
+      <c r="CM13" s="8"/>
+      <c r="CN13" s="8"/>
+      <c r="CO13" s="8"/>
+      <c r="CP13" s="8"/>
+      <c r="CQ13" s="8"/>
+      <c r="CR13" s="8"/>
+      <c r="CS13" s="8"/>
+      <c r="CT13" s="8"/>
+      <c r="CU13" s="8"/>
+      <c r="CV13" s="8"/>
+      <c r="CW13" s="8"/>
+      <c r="CX13" s="8"/>
+      <c r="CY13" s="8"/>
+      <c r="CZ13" s="8"/>
+      <c r="DA13" s="8"/>
+      <c r="DB13" s="8"/>
+      <c r="DC13" s="8"/>
+      <c r="DD13" s="8"/>
+      <c r="DE13" s="8"/>
+      <c r="DF13" s="8"/>
+      <c r="DG13" s="8"/>
+      <c r="DH13" s="8"/>
+      <c r="DI13" s="8"/>
+      <c r="DJ13" s="8"/>
+      <c r="DK13" s="8"/>
+      <c r="DL13" s="8"/>
+      <c r="DM13" s="8"/>
+      <c r="DN13" s="8"/>
+      <c r="DO13" s="8"/>
+      <c r="DP13" s="8"/>
+      <c r="DQ13" s="8"/>
+      <c r="DR13" s="8"/>
+      <c r="DS13" s="8"/>
+      <c r="DT13" s="8"/>
+      <c r="DU13" s="8"/>
+      <c r="DV13" s="8"/>
+      <c r="DW13" s="8"/>
+      <c r="DX13" s="8"/>
+      <c r="DY13" s="8"/>
+      <c r="DZ13" s="8"/>
+      <c r="EA13" s="8"/>
+      <c r="EB13" s="8"/>
+      <c r="EC13" s="8"/>
+      <c r="ED13" s="8"/>
+      <c r="EE13" s="8"/>
+      <c r="EF13" s="8"/>
+      <c r="EG13" s="8"/>
+      <c r="EH13" s="8"/>
+      <c r="EI13" s="8"/>
+      <c r="EJ13" s="8"/>
+      <c r="EK13" s="8"/>
+      <c r="EL13" s="8"/>
+      <c r="EM13" s="8"/>
+      <c r="EN13" s="8"/>
+      <c r="EO13" s="8"/>
+      <c r="EP13" s="8"/>
+      <c r="EQ13" s="8"/>
+      <c r="ER13" s="8"/>
+      <c r="ES13" s="8"/>
+      <c r="ET13" s="8"/>
+      <c r="EU13" s="8"/>
+      <c r="EV13" s="8"/>
+      <c r="EW13" s="8"/>
+      <c r="EX13" s="8"/>
+      <c r="EY13" s="8"/>
+      <c r="EZ13" s="8"/>
+      <c r="FA13" s="8"/>
+      <c r="FB13" s="8"/>
+      <c r="FC13" s="8"/>
+      <c r="FD13" s="8"/>
+      <c r="FE13" s="8"/>
+      <c r="FF13" s="8"/>
+      <c r="FG13" s="8"/>
+      <c r="FH13" s="8"/>
+      <c r="FI13" s="8"/>
+      <c r="FJ13" s="8"/>
+      <c r="FK13" s="8"/>
+      <c r="FL13" s="8"/>
+      <c r="FM13" s="8"/>
+      <c r="FN13" s="8"/>
+      <c r="FO13" s="8"/>
+      <c r="FP13" s="8"/>
+      <c r="FQ13" s="8"/>
+      <c r="FR13" s="8"/>
+      <c r="FS13" s="8"/>
+      <c r="FT13" s="8"/>
+      <c r="FU13" s="8"/>
+      <c r="FV13" s="8"/>
+      <c r="FW13" s="8"/>
+      <c r="FX13" s="8"/>
+      <c r="FY13" s="8"/>
+      <c r="FZ13" s="8"/>
+      <c r="GA13" s="8"/>
+      <c r="GB13" s="8"/>
+      <c r="GC13" s="8"/>
+      <c r="GD13" s="8"/>
+      <c r="GE13" s="8"/>
+      <c r="GF13" s="8"/>
+      <c r="GG13" s="8"/>
+      <c r="GH13" s="8"/>
+      <c r="GI13" s="8"/>
+      <c r="GJ13" s="8"/>
+      <c r="GK13" s="8"/>
+      <c r="GL13" s="8"/>
+      <c r="GM13" s="8"/>
+      <c r="GN13" s="8"/>
+      <c r="GO13" s="8"/>
+      <c r="GP13" s="8"/>
+      <c r="GQ13" s="8"/>
+      <c r="GR13" s="8"/>
+      <c r="GS13" s="8"/>
+      <c r="GT13" s="8"/>
+      <c r="GU13" s="8"/>
+      <c r="GV13" s="8"/>
+      <c r="GW13" s="8"/>
+      <c r="GX13" s="8"/>
+      <c r="GY13" s="8"/>
+      <c r="GZ13" s="8"/>
+      <c r="HA13" s="8"/>
+      <c r="HB13" s="8"/>
+      <c r="HC13" s="8"/>
+      <c r="HD13" s="8"/>
+      <c r="HE13" s="8"/>
+      <c r="HF13" s="8"/>
+      <c r="HG13" s="8"/>
+      <c r="HH13" s="8"/>
+      <c r="HI13" s="8"/>
+      <c r="HJ13" s="8"/>
+      <c r="HK13" s="8"/>
+      <c r="HL13" s="8"/>
+      <c r="HM13" s="8"/>
+      <c r="HN13" s="8"/>
+      <c r="HO13" s="8"/>
+      <c r="HP13" s="8"/>
+      <c r="HQ13" s="8"/>
+      <c r="HR13" s="8"/>
+      <c r="HS13" s="8"/>
+      <c r="HT13" s="8"/>
+      <c r="HU13" s="8"/>
+      <c r="HV13" s="8"/>
+      <c r="HW13" s="8"/>
+      <c r="HX13" s="8"/>
+      <c r="HY13" s="8"/>
+      <c r="HZ13" s="8"/>
+      <c r="IA13" s="8"/>
+      <c r="IB13" s="8"/>
+      <c r="IC13" s="8"/>
+      <c r="ID13" s="8"/>
+      <c r="IE13" s="8"/>
+      <c r="IF13" s="8"/>
+      <c r="IG13" s="8"/>
+      <c r="IH13" s="8"/>
+      <c r="II13" s="8"/>
+      <c r="IJ13" s="8"/>
+      <c r="IK13" s="8"/>
+      <c r="IL13" s="8"/>
+      <c r="IM13" s="8"/>
+      <c r="IN13" s="8"/>
+      <c r="IO13" s="8"/>
+      <c r="IP13" s="8"/>
+      <c r="IQ13" s="8"/>
+      <c r="IR13" s="8"/>
+      <c r="IS13" s="8"/>
+      <c r="IT13" s="8"/>
+      <c r="IU13" s="8"/>
+      <c r="IV13" s="8"/>
+      <c r="IW13" s="8"/>
+      <c r="IX13" s="8"/>
+      <c r="IY13" s="8"/>
+      <c r="IZ13" s="8"/>
+      <c r="JA13" s="8"/>
+      <c r="JB13" s="8"/>
+      <c r="JC13" s="8"/>
+      <c r="JD13" s="8"/>
+      <c r="JE13" s="8"/>
+      <c r="JF13" s="8"/>
+      <c r="JG13" s="8"/>
+      <c r="JH13" s="8"/>
+      <c r="JI13" s="8"/>
+      <c r="JJ13" s="8"/>
+      <c r="JK13" s="8"/>
+      <c r="JL13" s="8"/>
+      <c r="JM13" s="8"/>
+      <c r="JN13" s="8"/>
+      <c r="JO13" s="8"/>
+      <c r="JP13" s="8"/>
+      <c r="JQ13" s="8"/>
+      <c r="JR13" s="8"/>
+      <c r="JS13" s="8"/>
+      <c r="JT13" s="8"/>
+      <c r="JU13" s="8"/>
+      <c r="JV13" s="8"/>
+      <c r="JW13" s="8"/>
+      <c r="JX13" s="8"/>
+      <c r="JY13" s="8"/>
+      <c r="JZ13" s="8"/>
+      <c r="KA13" s="8"/>
+      <c r="KB13" s="8"/>
+      <c r="KC13" s="8"/>
+      <c r="KD13" s="8"/>
+      <c r="KE13" s="8"/>
+      <c r="KF13" s="8"/>
+      <c r="KG13" s="8"/>
+      <c r="KH13" s="8"/>
+      <c r="KI13" s="8"/>
+      <c r="KJ13" s="8"/>
+      <c r="KK13" s="8"/>
+      <c r="KL13" s="8"/>
+      <c r="KM13" s="8"/>
+      <c r="KN13" s="8"/>
+      <c r="KO13" s="8"/>
+      <c r="KP13" s="8"/>
+      <c r="KQ13" s="8"/>
+      <c r="KR13" s="8"/>
+      <c r="KS13" s="8"/>
+      <c r="KT13" s="8"/>
+      <c r="KU13" s="8"/>
+      <c r="KV13" s="8"/>
+      <c r="KW13" s="8"/>
+      <c r="KX13" s="8"/>
+      <c r="KY13" s="8"/>
+      <c r="KZ13" s="8"/>
+      <c r="LA13" s="8"/>
+      <c r="LB13" s="8"/>
+      <c r="LC13" s="8"/>
+      <c r="LD13" s="8"/>
+      <c r="LE13" s="8"/>
+      <c r="LF13" s="8"/>
+      <c r="LG13" s="8"/>
+      <c r="LH13" s="8"/>
+      <c r="LI13" s="8"/>
+      <c r="LJ13" s="8"/>
+      <c r="LK13" s="8"/>
+      <c r="LL13" s="8"/>
+      <c r="LM13" s="8"/>
+      <c r="LN13" s="8"/>
+      <c r="LO13" s="8"/>
+      <c r="LP13" s="8"/>
+      <c r="LQ13" s="8"/>
+      <c r="LR13" s="8"/>
+      <c r="LS13" s="8"/>
+      <c r="LT13" s="8"/>
+      <c r="LU13" s="8"/>
+      <c r="LV13" s="8"/>
+      <c r="LW13" s="8"/>
+      <c r="LX13" s="8"/>
+      <c r="LY13" s="8"/>
+      <c r="LZ13" s="8"/>
+      <c r="MA13" s="8"/>
+      <c r="MB13" s="8"/>
+      <c r="MC13" s="8"/>
+      <c r="MD13" s="8"/>
+      <c r="ME13" s="8"/>
+      <c r="MF13" s="8"/>
+      <c r="MG13" s="8"/>
+      <c r="MH13" s="8"/>
+      <c r="MI13" s="8"/>
+      <c r="MJ13" s="8"/>
+      <c r="MK13" s="8"/>
+      <c r="ML13" s="8"/>
+      <c r="MM13" s="8"/>
+      <c r="MN13" s="8"/>
+      <c r="MO13" s="8"/>
+      <c r="MP13" s="8"/>
+      <c r="MQ13" s="8"/>
+      <c r="MR13" s="8"/>
+      <c r="MS13" s="8"/>
+      <c r="MT13" s="8"/>
+      <c r="MU13" s="8"/>
+      <c r="MV13" s="8"/>
+      <c r="MW13" s="8"/>
+      <c r="MX13" s="8"/>
+      <c r="MY13" s="8"/>
+      <c r="MZ13" s="8"/>
+      <c r="NA13" s="8"/>
+      <c r="NB13" s="8"/>
+      <c r="NC13" s="8"/>
+      <c r="ND13" s="8"/>
+      <c r="NE13" s="8"/>
+      <c r="NF13" s="8"/>
+      <c r="NG13" s="8"/>
+      <c r="NH13" s="8"/>
+      <c r="NI13" s="8"/>
+      <c r="NJ13" s="8"/>
+      <c r="NK13" s="8"/>
+      <c r="NL13" s="8"/>
+      <c r="NM13" s="8"/>
+      <c r="NN13" s="8"/>
+      <c r="NO13" s="8"/>
+      <c r="NP13" s="8"/>
+      <c r="NQ13" s="8"/>
+      <c r="NR13" s="8"/>
+      <c r="NS13" s="8"/>
+      <c r="NT13" s="8"/>
+      <c r="NU13" s="8"/>
+      <c r="NV13" s="8"/>
+      <c r="NW13" s="8"/>
+      <c r="NX13" s="8"/>
+      <c r="NY13" s="8"/>
+      <c r="NZ13" s="8"/>
+      <c r="OA13" s="8"/>
+      <c r="OB13" s="8"/>
+      <c r="OC13" s="8"/>
+      <c r="OD13" s="8"/>
+      <c r="OE13" s="8"/>
+      <c r="OF13" s="8"/>
+      <c r="OG13" s="8"/>
+      <c r="OH13" s="8"/>
+      <c r="OI13" s="8"/>
+      <c r="OJ13" s="8"/>
+      <c r="OK13" s="8"/>
+      <c r="OL13" s="8"/>
+      <c r="OM13" s="8"/>
+      <c r="ON13" s="8"/>
+      <c r="OO13" s="8"/>
+      <c r="OP13" s="8"/>
+      <c r="OQ13" s="8"/>
+      <c r="OR13" s="8"/>
+      <c r="OS13" s="8"/>
+      <c r="OT13" s="8"/>
+      <c r="OU13" s="8"/>
+      <c r="OV13" s="8"/>
+      <c r="OW13" s="8"/>
+      <c r="OX13" s="8"/>
+      <c r="OY13" s="8"/>
+      <c r="OZ13" s="8"/>
+      <c r="PA13" s="8"/>
+      <c r="PB13" s="8"/>
+      <c r="PC13" s="8"/>
+      <c r="PD13" s="8"/>
+      <c r="PE13" s="8"/>
+      <c r="PF13" s="8"/>
+      <c r="PG13" s="8"/>
+      <c r="PH13" s="8"/>
+      <c r="PI13" s="8"/>
+      <c r="PJ13" s="8"/>
+      <c r="PK13" s="8"/>
+      <c r="PL13" s="8"/>
+      <c r="PM13" s="8"/>
+      <c r="PN13" s="8"/>
+      <c r="PO13" s="8"/>
+      <c r="PP13" s="8"/>
+      <c r="PQ13" s="8"/>
+      <c r="PR13" s="8"/>
+      <c r="PS13" s="8"/>
+      <c r="PT13" s="8"/>
+      <c r="PU13" s="8"/>
+      <c r="PV13" s="8"/>
+      <c r="PW13" s="8"/>
+      <c r="PX13" s="8"/>
+      <c r="PY13" s="8"/>
+      <c r="PZ13" s="8"/>
+      <c r="QA13" s="8"/>
+      <c r="QB13" s="8"/>
+      <c r="QC13" s="8"/>
+      <c r="QD13" s="8"/>
+      <c r="QE13" s="8"/>
+      <c r="QF13" s="8"/>
+      <c r="QG13" s="8"/>
+      <c r="QH13" s="8"/>
+      <c r="QI13" s="8"/>
+      <c r="QJ13" s="8"/>
+      <c r="QK13" s="8"/>
+      <c r="QL13" s="8"/>
+      <c r="QM13" s="8"/>
+      <c r="QN13" s="8"/>
+      <c r="QO13" s="8"/>
+      <c r="QP13" s="8"/>
+      <c r="QQ13" s="8"/>
+      <c r="QR13" s="8"/>
+      <c r="QS13" s="8"/>
+      <c r="QT13" s="8"/>
+      <c r="QU13" s="8"/>
+      <c r="QV13" s="8"/>
+      <c r="QW13" s="8"/>
+      <c r="QX13" s="8"/>
+      <c r="QY13" s="8"/>
+      <c r="QZ13" s="8"/>
+      <c r="RA13" s="8"/>
+      <c r="RB13" s="8"/>
+      <c r="RC13" s="8"/>
+      <c r="RD13" s="8"/>
+      <c r="RE13" s="8"/>
+      <c r="RF13" s="8"/>
+      <c r="RG13" s="8"/>
+      <c r="RH13" s="8"/>
+      <c r="RI13" s="8"/>
+      <c r="RJ13" s="8"/>
+      <c r="RK13" s="8"/>
+      <c r="RL13" s="8"/>
+      <c r="RM13" s="8"/>
+      <c r="RN13" s="8"/>
+      <c r="RO13" s="8"/>
+      <c r="RP13" s="8"/>
+      <c r="RQ13" s="8"/>
+      <c r="RR13" s="8"/>
+      <c r="RS13" s="8"/>
+      <c r="RT13" s="8"/>
+      <c r="RU13" s="8"/>
+      <c r="RV13" s="8"/>
+      <c r="RW13" s="8"/>
+      <c r="RX13" s="8"/>
+      <c r="RY13" s="8"/>
+      <c r="RZ13" s="8"/>
+      <c r="SA13" s="8"/>
+      <c r="SB13" s="8"/>
+      <c r="SC13" s="8"/>
+      <c r="SD13" s="8"/>
+      <c r="SE13" s="8"/>
+      <c r="SF13" s="8"/>
+      <c r="SG13" s="8"/>
+      <c r="SH13" s="8"/>
+      <c r="SI13" s="8"/>
+      <c r="SJ13" s="8"/>
+      <c r="SK13" s="8"/>
+      <c r="SL13" s="8"/>
+      <c r="SM13" s="8"/>
+      <c r="SN13" s="8"/>
+      <c r="SO13" s="8"/>
+      <c r="SP13" s="8"/>
+      <c r="SQ13" s="8"/>
+      <c r="SR13" s="8"/>
+      <c r="SS13" s="8"/>
+      <c r="ST13" s="8"/>
+      <c r="SU13" s="8"/>
+      <c r="SV13" s="8"/>
+      <c r="SW13" s="8"/>
+      <c r="SX13" s="8"/>
+      <c r="SY13" s="8"/>
+      <c r="SZ13" s="8"/>
+      <c r="TA13" s="8"/>
+      <c r="TB13" s="8"/>
+      <c r="TC13" s="8"/>
+      <c r="TD13" s="8"/>
+      <c r="TE13" s="8"/>
+      <c r="TF13" s="8"/>
+      <c r="TG13" s="8"/>
+      <c r="TH13" s="8"/>
+      <c r="TI13" s="8"/>
+      <c r="TJ13" s="8"/>
+      <c r="TK13" s="8"/>
+      <c r="TL13" s="8"/>
+      <c r="TM13" s="8"/>
+      <c r="TN13" s="8"/>
+      <c r="TO13" s="8"/>
+      <c r="TP13" s="8"/>
+      <c r="TQ13" s="8"/>
+      <c r="TR13" s="8"/>
+      <c r="TS13" s="8"/>
+      <c r="TT13" s="8"/>
+      <c r="TU13" s="8"/>
+      <c r="TV13" s="8"/>
+      <c r="TW13" s="8"/>
+      <c r="TX13" s="8"/>
+      <c r="TY13" s="8"/>
+      <c r="TZ13" s="8"/>
+      <c r="UA13" s="8"/>
+      <c r="UB13" s="8"/>
+      <c r="UC13" s="8"/>
+      <c r="UD13" s="8"/>
+      <c r="UE13" s="8"/>
+      <c r="UF13" s="8"/>
+      <c r="UG13" s="8"/>
+      <c r="UH13" s="8"/>
+      <c r="UI13" s="8"/>
+      <c r="UJ13" s="8"/>
+      <c r="UK13" s="8"/>
+      <c r="UL13" s="8"/>
+      <c r="UM13" s="8"/>
+      <c r="UN13" s="8"/>
+      <c r="UO13" s="8"/>
+      <c r="UP13" s="8"/>
+      <c r="UQ13" s="8"/>
+      <c r="UR13" s="8"/>
+      <c r="US13" s="8"/>
+      <c r="UT13" s="8"/>
+      <c r="UU13" s="8"/>
+      <c r="UV13" s="8"/>
+      <c r="UW13" s="8"/>
+      <c r="UX13" s="8"/>
+      <c r="UY13" s="8"/>
+      <c r="UZ13" s="8"/>
+      <c r="VA13" s="8"/>
+      <c r="VB13" s="8"/>
+      <c r="VC13" s="8"/>
+      <c r="VD13" s="8"/>
+      <c r="VE13" s="8"/>
+      <c r="VF13" s="8"/>
+      <c r="VG13" s="8"/>
+      <c r="VH13" s="8"/>
+      <c r="VI13" s="8"/>
+      <c r="VJ13" s="8"/>
+      <c r="VK13" s="8"/>
+      <c r="VL13" s="8"/>
+      <c r="VM13" s="8"/>
+      <c r="VN13" s="8"/>
+      <c r="VO13" s="8"/>
+      <c r="VP13" s="8"/>
+      <c r="VQ13" s="8"/>
+      <c r="VR13" s="8"/>
+      <c r="VS13" s="8"/>
+      <c r="VT13" s="8"/>
+      <c r="VU13" s="8"/>
+      <c r="VV13" s="8"/>
+      <c r="VW13" s="8"/>
+      <c r="VX13" s="8"/>
+      <c r="VY13" s="8"/>
+      <c r="VZ13" s="8"/>
+      <c r="WA13" s="8"/>
+      <c r="WB13" s="8"/>
+      <c r="WC13" s="8"/>
+      <c r="WD13" s="8"/>
+      <c r="WE13" s="8"/>
+      <c r="WF13" s="8"/>
+      <c r="WG13" s="8"/>
+      <c r="WH13" s="8"/>
+      <c r="WI13" s="8"/>
+      <c r="WJ13" s="8"/>
+      <c r="WK13" s="8"/>
+      <c r="WL13" s="8"/>
+      <c r="WM13" s="8"/>
+      <c r="WN13" s="8"/>
+      <c r="WO13" s="8"/>
+      <c r="WP13" s="8"/>
+      <c r="WQ13" s="8"/>
+      <c r="WR13" s="8"/>
+      <c r="WS13" s="8"/>
+      <c r="WT13" s="8"/>
+      <c r="WU13" s="8"/>
+      <c r="WV13" s="8"/>
+      <c r="WW13" s="8"/>
+      <c r="WX13" s="8"/>
+      <c r="WY13" s="8"/>
+      <c r="WZ13" s="8"/>
+      <c r="XA13" s="8"/>
+      <c r="XB13" s="8"/>
+      <c r="XC13" s="8"/>
+      <c r="XD13" s="8"/>
+      <c r="XE13" s="8"/>
+      <c r="XF13" s="8"/>
+      <c r="XG13" s="8"/>
+      <c r="XH13" s="8"/>
+      <c r="XI13" s="8"/>
+      <c r="XJ13" s="8"/>
+      <c r="XK13" s="8"/>
+      <c r="XL13" s="8"/>
+      <c r="XM13" s="8"/>
+      <c r="XN13" s="8"/>
+      <c r="XO13" s="8"/>
+      <c r="XP13" s="8"/>
+      <c r="XQ13" s="8"/>
+      <c r="XR13" s="8"/>
+      <c r="XS13" s="8"/>
+      <c r="XT13" s="8"/>
+      <c r="XU13" s="8"/>
+      <c r="XV13" s="8"/>
+      <c r="XW13" s="8"/>
+      <c r="XX13" s="8"/>
+      <c r="XY13" s="8"/>
+      <c r="XZ13" s="8"/>
+      <c r="YA13" s="8"/>
+      <c r="YB13" s="8"/>
+      <c r="YC13" s="8"/>
+      <c r="YD13" s="8"/>
+      <c r="YE13" s="8"/>
+      <c r="YF13" s="8"/>
+      <c r="YG13" s="8"/>
+      <c r="YH13" s="8"/>
+      <c r="YI13" s="8"/>
+      <c r="YJ13" s="8"/>
+      <c r="YK13" s="8"/>
+      <c r="YL13" s="8"/>
+      <c r="YM13" s="8"/>
+      <c r="YN13" s="8"/>
+      <c r="YO13" s="8"/>
+      <c r="YP13" s="8"/>
+      <c r="YQ13" s="8"/>
+      <c r="YR13" s="8"/>
+      <c r="YS13" s="8"/>
+      <c r="YT13" s="8"/>
+      <c r="YU13" s="8"/>
+      <c r="YV13" s="8"/>
+      <c r="YW13" s="8"/>
+      <c r="YX13" s="8"/>
+      <c r="YY13" s="8"/>
+      <c r="YZ13" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>